--- a/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019CBBAD-ABA4-4B9E-854B-2C09CE0706B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="154">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -446,10 +445,6 @@
   </si>
   <si>
     <t>baseRateCodeEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AdjDate &gt;= ,AND AdjDate &lt;= ,AND CustCode &gt;= ,AND CustCode &lt;= ,AND TxKind = ,AND ConfirmFlag = </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -597,11 +592,49 @@
 5.按商品別調整</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>OvduTerm</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期期數</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>經辦</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTxtNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易序號</t>
+  </si>
+  <si>
+    <t>findL4320Erase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AdjDate &gt;= ,AND AdjDate &lt;= ,AND CustCode &gt;= ,AND CustCode &lt;= ,AND TxKind = ,AND ConfirmFlag = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTlrNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjDate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -801,7 +834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -938,14 +971,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般 2 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1036,23 +1072,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1088,23 +1107,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1280,11 +1282,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1307,7 +1309,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1502,7 +1504,7 @@
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1573,7 +1575,7 @@
         <v>80</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
@@ -1601,7 +1603,7 @@
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48.6">
@@ -1622,7 +1624,7 @@
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8">
@@ -1643,7 +1645,7 @@
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1692,7 +1694,7 @@
         <v>83</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>62</v>
@@ -1702,7 +1704,7 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1761,7 +1763,7 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1801,7 +1803,7 @@
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1831,7 +1833,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>39</v>
@@ -1843,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1875,7 +1877,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>39</v>
@@ -1938,7 +1940,7 @@
         <v>104</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>39</v>
@@ -1973,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1984,7 +1986,7 @@
         <v>68</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>41</v>
@@ -1996,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="81">
@@ -2017,7 +2019,7 @@
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2038,7 +2040,7 @@
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2049,7 +2051,7 @@
         <v>106</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>38</v>
@@ -2061,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2082,7 +2084,7 @@
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2093,7 +2095,7 @@
         <v>100</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>38</v>
@@ -2115,7 +2117,7 @@
         <v>109</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E43" s="31">
         <v>300</v>
@@ -2124,72 +2126,125 @@
       <c r="G43" s="32"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="19">
-        <v>36</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="23"/>
-      <c r="G44" s="25"/>
+      <c r="A44" s="31">
+        <v>8</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="19">
+        <v>15</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="23">
+      <c r="E45" s="19">
         <v>6</v>
       </c>
-      <c r="G45" s="25"/>
+      <c r="G45" s="46"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="19">
-        <v>38</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="23"/>
-      <c r="G46" s="25"/>
+        <v>149</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="19">
+        <v>8</v>
+      </c>
+      <c r="G46" s="46"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="19">
+        <v>36</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="23"/>
+      <c r="G47" s="25"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="19">
+        <v>37</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="23">
+        <v>6</v>
+      </c>
+      <c r="G48" s="25"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="19">
+        <v>38</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="23"/>
+      <c r="G49" s="25"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="19">
         <v>39</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B50" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C50" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D50" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E50" s="23">
         <v>6</v>
       </c>
-      <c r="G47" s="25"/>
+      <c r="G50" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2208,12 +2263,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2272,7 +2327,15 @@
         <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2283,7 +2346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2302,7 +2365,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2334,13 +2397,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>126</v>
-      </c>
       <c r="E5" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2352,13 +2415,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="16">
         <v>6</v>

--- a/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="155">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -124,9 +124,6 @@
     <t>合約利率</t>
   </si>
   <si>
-    <t>合約加減碼</t>
-  </si>
-  <si>
     <t>CustCode</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -513,27 +510,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>個別加減碼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>調整前借戶利率檔加碼利率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>調整前借戶利率檔個別加減碼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>目前生效日</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>目前利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>利率加減碼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -548,10 +533,6 @@
     <t>0.未輸入
 1.已輸入
 2.不處理(檢核有誤)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>合約指標利率</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -629,6 +610,30 @@
   <si>
     <t>AdjDate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>合約指標利率</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>個別加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合約加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整前借戶利率檔加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整前借戶利率檔個別加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -961,6 +966,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -971,9 +979,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1285,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1301,25 +1306,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1329,12 +1334,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1344,10 +1349,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1355,10 +1360,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1366,10 +1371,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1377,10 +1382,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1415,13 +1420,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="23">
         <v>8</v>
@@ -1434,13 +1439,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="19">
         <v>7</v>
@@ -1453,13 +1458,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="19">
         <v>3</v>
@@ -1472,13 +1477,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="19">
         <v>3</v>
@@ -1491,20 +1496,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>103</v>
-      </c>
       <c r="D13" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1512,13 +1517,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="19">
         <v>14</v>
@@ -1531,13 +1536,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="19">
         <v>2</v>
@@ -1550,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="19">
         <v>3</v>
@@ -1569,20 +1574,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>80</v>
-      </c>
       <c r="D17" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="81">
@@ -1590,20 +1595,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="23">
         <v>1</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48.6">
@@ -1611,20 +1616,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="19">
         <v>1</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8">
@@ -1632,20 +1637,20 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>95</v>
-      </c>
       <c r="D20" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="19">
         <v>1</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1653,13 +1658,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="19">
         <v>14</v>
@@ -1678,7 +1683,7 @@
         <v>26</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="19">
         <v>14</v>
@@ -1691,20 +1696,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="23">
         <v>8</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1712,13 +1717,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="23">
         <v>8</v>
@@ -1731,13 +1736,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="23">
         <v>8</v>
@@ -1750,20 +1755,20 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>89</v>
-      </c>
       <c r="D26" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="23">
         <v>2</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1771,13 +1776,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="23">
         <v>8</v>
@@ -1790,20 +1795,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1811,13 +1816,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="19">
         <v>5</v>
@@ -1830,13 +1835,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="19">
         <v>6</v>
@@ -1845,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1853,13 +1858,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="19">
         <v>6</v>
@@ -1874,13 +1879,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="19">
         <v>6</v>
@@ -1895,13 +1900,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="19">
         <v>6</v>
@@ -1916,13 +1921,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" s="19">
         <v>6</v>
@@ -1937,13 +1942,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="19">
         <v>6</v>
@@ -1952,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1960,13 +1965,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" s="19">
         <v>6</v>
@@ -1975,7 +1980,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1983,13 +1988,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E37" s="19">
         <v>6</v>
@@ -1998,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="81">
@@ -2006,20 +2011,20 @@
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>111</v>
-      </c>
       <c r="D38" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="23">
         <v>2</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2027,20 +2032,20 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" s="27">
         <v>1</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2048,13 +2053,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E40" s="19">
         <v>6</v>
@@ -2063,7 +2068,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2071,20 +2076,20 @@
         <v>33</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" s="23">
         <v>8</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2092,13 +2097,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" s="23">
         <v>2</v>
@@ -2111,13 +2116,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="32" t="s">
-        <v>109</v>
-      </c>
       <c r="D43" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E43" s="31">
         <v>300</v>
@@ -2130,13 +2135,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E44" s="19">
         <v>3</v>
@@ -2147,49 +2152,49 @@
         <v>15</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" s="19">
         <v>6</v>
       </c>
-      <c r="G45" s="46"/>
+      <c r="G45" s="42"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="19">
         <v>16</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" s="19">
         <v>8</v>
       </c>
-      <c r="G46" s="46"/>
+      <c r="G46" s="42"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="19">
         <v>36</v>
       </c>
       <c r="B47" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="E47" s="23"/>
       <c r="G47" s="25"/>
@@ -2199,13 +2204,13 @@
         <v>37</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="D48" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="E48" s="23">
         <v>6</v>
@@ -2217,13 +2222,13 @@
         <v>38</v>
       </c>
       <c r="B49" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="D49" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>55</v>
       </c>
       <c r="E49" s="23"/>
       <c r="G49" s="25"/>
@@ -2233,13 +2238,13 @@
         <v>39</v>
       </c>
       <c r="B50" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>57</v>
-      </c>
       <c r="D50" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E50" s="23">
         <v>6</v>
@@ -2266,7 +2271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
@@ -2292,50 +2297,50 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2365,7 +2370,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2397,13 +2402,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>125</v>
-      </c>
       <c r="E5" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2415,13 +2420,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="16">
         <v>6</v>

--- a/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>戶別</t>
   </si>
   <si>
-    <t>是否輸入利率</t>
-  </si>
-  <si>
     <t>地區別</t>
   </si>
   <si>
@@ -376,10 +373,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>調整記號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>調整日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -400,14 +393,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>TxKind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>作業項目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ContrBaseRate</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -520,20 +505,6 @@
   <si>
     <t>目前利率</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.批次自動調整
-2.按地區別自動調整
-3.人工調整(未調整)
-4.人工調整(待輸入)
-5.人工調整(已調整)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.未輸入
-1.已輸入
-2.不處理(檢核有誤)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>0.未確認
@@ -634,6 +605,35 @@
   <si>
     <t>調整前借戶利率檔個別加碼利率</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.批次自動調整
+2.按地區別調整
+3.人工調整</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxKind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作業項目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整記號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入記號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.未輸入
+1.已輸入
+2.待輸入
+9.待處理(檢核錯誤)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1291,7 +1291,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1311,10 +1311,10 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1324,7 +1324,7 @@
       <c r="A2" s="43"/>
       <c r="B2" s="44"/>
       <c r="C2" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1420,13 +1420,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="23">
         <v>8</v>
@@ -1439,13 +1439,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="19">
         <v>7</v>
@@ -1458,13 +1458,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="19">
         <v>3</v>
@@ -1477,13 +1477,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="19">
         <v>3</v>
@@ -1496,20 +1496,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="21" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1517,13 +1517,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="19">
         <v>14</v>
@@ -1536,13 +1536,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="19">
         <v>2</v>
@@ -1555,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="19">
         <v>3</v>
@@ -1574,62 +1574,62 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>79</v>
-      </c>
       <c r="D17" s="27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="48.6">
       <c r="A18" s="19">
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="23">
         <v>1</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="48.6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="64.8">
       <c r="A19" s="19">
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="19">
         <v>1</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="21" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8">
@@ -1637,20 +1637,20 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>94</v>
-      </c>
       <c r="D20" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="19">
         <v>1</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1658,13 +1658,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="19">
         <v>14</v>
@@ -1680,10 +1680,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="19">
         <v>14</v>
@@ -1696,20 +1696,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="23">
         <v>8</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1717,13 +1717,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="23">
         <v>8</v>
@@ -1736,13 +1736,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="23">
         <v>8</v>
@@ -1755,20 +1755,20 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>88</v>
-      </c>
       <c r="D26" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="23">
         <v>2</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1776,13 +1776,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="23">
         <v>8</v>
@@ -1795,20 +1795,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1816,13 +1816,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="19">
         <v>5</v>
@@ -1835,13 +1835,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="19">
         <v>6</v>
@@ -1850,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1858,13 +1858,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="19">
         <v>6</v>
@@ -1879,13 +1879,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="19">
         <v>6</v>
@@ -1900,13 +1900,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="19">
         <v>6</v>
@@ -1921,13 +1921,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" s="19">
         <v>6</v>
@@ -1942,13 +1942,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="19">
         <v>6</v>
@@ -1957,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1965,13 +1965,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E36" s="19">
         <v>6</v>
@@ -1980,7 +1980,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1988,13 +1988,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" s="19">
         <v>6</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="81">
@@ -2011,20 +2011,20 @@
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E38" s="23">
         <v>2</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2032,20 +2032,20 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E39" s="27">
         <v>1</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2053,13 +2053,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="19">
         <v>6</v>
@@ -2068,7 +2068,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2076,20 +2076,20 @@
         <v>33</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E41" s="23">
         <v>8</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2097,13 +2097,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="23">
         <v>2</v>
@@ -2116,13 +2116,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E43" s="31">
         <v>300</v>
@@ -2135,13 +2135,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E44" s="19">
         <v>3</v>
@@ -2152,13 +2152,13 @@
         <v>15</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E45" s="19">
         <v>6</v>
@@ -2170,13 +2170,13 @@
         <v>16</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E46" s="19">
         <v>8</v>
@@ -2188,13 +2188,13 @@
         <v>36</v>
       </c>
       <c r="B47" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="E47" s="23"/>
       <c r="G47" s="25"/>
@@ -2204,13 +2204,13 @@
         <v>37</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="D48" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>51</v>
       </c>
       <c r="E48" s="23">
         <v>6</v>
@@ -2222,13 +2222,13 @@
         <v>38</v>
       </c>
       <c r="B49" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="D49" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>54</v>
       </c>
       <c r="E49" s="23"/>
       <c r="G49" s="25"/>
@@ -2238,13 +2238,13 @@
         <v>39</v>
       </c>
       <c r="B50" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>56</v>
-      </c>
       <c r="D50" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E50" s="23">
         <v>6</v>
@@ -2297,50 +2297,50 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2370,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="40" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2402,13 +2402,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2420,13 +2420,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F6" s="16">
         <v>6</v>

--- a/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -100,6 +100,9 @@
     <t>戶別</t>
   </si>
   <si>
+    <t>是否輸入利率</t>
+  </si>
+  <si>
     <t>地區別</t>
   </si>
   <si>
@@ -373,6 +376,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>調整記號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>調整日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -391,6 +398,14 @@
   <si>
     <t>findL4321Report</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxKind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作業項目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ContrBaseRate</t>
@@ -607,32 +622,17 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.批次自動調整
+    <t xml:space="preserve">1.批次自動調整
 2.按地區別調整
-3.人工調整</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxKind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>作業項目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整記號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入記號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.未輸入
-1.已輸入
+3.人工調整 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.未調整
+1.已調整
 2.待輸入
-9.待處理(檢核錯誤)</t>
+3.已輸入
+9.待處理(檢核有誤)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1311,10 +1311,10 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1324,7 +1324,7 @@
       <c r="A2" s="43"/>
       <c r="B2" s="44"/>
       <c r="C2" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1420,13 +1420,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="23">
         <v>8</v>
@@ -1439,13 +1439,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="19">
         <v>7</v>
@@ -1458,13 +1458,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="19">
         <v>3</v>
@@ -1477,13 +1477,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>56</v>
-      </c>
       <c r="D12" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="19">
         <v>3</v>
@@ -1496,20 +1496,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="21" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1517,13 +1517,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="19">
         <v>14</v>
@@ -1536,13 +1536,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" s="19">
         <v>2</v>
@@ -1555,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="19">
         <v>3</v>
@@ -1574,20 +1574,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="48.6">
@@ -1595,34 +1595,34 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="23">
         <v>1</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="64.8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="81">
       <c r="A19" s="19">
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="19">
         <v>1</v>
@@ -1637,20 +1637,20 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="19">
         <v>1</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1658,13 +1658,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="19">
         <v>14</v>
@@ -1680,10 +1680,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="19">
         <v>14</v>
@@ -1696,20 +1696,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E23" s="23">
         <v>8</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="21" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1717,13 +1717,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" s="23">
         <v>8</v>
@@ -1736,13 +1736,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>82</v>
-      </c>
       <c r="D25" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E25" s="23">
         <v>8</v>
@@ -1755,20 +1755,20 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="23">
         <v>2</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1776,13 +1776,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27" s="23">
         <v>8</v>
@@ -1795,20 +1795,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1816,13 +1816,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29" s="19">
         <v>5</v>
@@ -1835,13 +1835,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" s="19">
         <v>6</v>
@@ -1850,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1858,13 +1858,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="19">
         <v>6</v>
@@ -1879,13 +1879,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E32" s="19">
         <v>6</v>
@@ -1900,13 +1900,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" s="19">
         <v>6</v>
@@ -1921,13 +1921,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34" s="19">
         <v>6</v>
@@ -1942,13 +1942,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" s="19">
         <v>6</v>
@@ -1957,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1965,13 +1965,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" s="19">
         <v>6</v>
@@ -1980,7 +1980,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1988,13 +1988,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" s="19">
         <v>6</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="81">
@@ -2011,20 +2011,20 @@
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E38" s="23">
         <v>2</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2032,20 +2032,20 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E39" s="27">
         <v>1</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2053,13 +2053,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E40" s="19">
         <v>6</v>
@@ -2068,7 +2068,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2076,20 +2076,20 @@
         <v>33</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E41" s="23">
         <v>8</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="28" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2097,13 +2097,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E42" s="23">
         <v>2</v>
@@ -2116,13 +2116,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E43" s="31">
         <v>300</v>
@@ -2135,13 +2135,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E44" s="19">
         <v>3</v>
@@ -2152,13 +2152,13 @@
         <v>15</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E45" s="19">
         <v>6</v>
@@ -2170,13 +2170,13 @@
         <v>16</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E46" s="19">
         <v>8</v>
@@ -2188,13 +2188,13 @@
         <v>36</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E47" s="23"/>
       <c r="G47" s="25"/>
@@ -2204,13 +2204,13 @@
         <v>37</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E48" s="23">
         <v>6</v>
@@ -2222,13 +2222,13 @@
         <v>38</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E49" s="23"/>
       <c r="G49" s="25"/>
@@ -2238,13 +2238,13 @@
         <v>39</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E50" s="23">
         <v>6</v>
@@ -2297,50 +2297,50 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2370,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="40" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2402,13 +2402,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2420,13 +2420,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D6" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="F6" s="16">
         <v>6</v>

--- a/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="157">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -100,9 +100,6 @@
     <t>戶別</t>
   </si>
   <si>
-    <t>是否輸入利率</t>
-  </si>
-  <si>
     <t>地區別</t>
   </si>
   <si>
@@ -302,10 +299,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>adjCodeEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>RateKeyInCode</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -364,19 +357,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">AdjDate &gt;= ,AND AdjDate &lt;= ,AND AdjCode &gt;= ,AND  AdjCode &lt;= ,AND RateKeyInCode &gt;= ,AND RateKeyInCode &lt;= </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ConfirmFlag</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>確認記號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整記號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -549,6 +534,94 @@
 2:固定
 3:定期機動</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OvduTerm</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期期數</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>經辦</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTxtNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易序號</t>
+  </si>
+  <si>
+    <t>findL4320Erase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AdjDate &gt;= ,AND AdjDate &lt;= ,AND CustCode &gt;= ,AND CustCode &lt;= ,AND TxKind = ,AND ConfirmFlag = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTlrNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjDate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>合約指標利率</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>個別加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合約加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整前借戶利率檔加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整前借戶利率檔個別加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.批次自動調整
+2.按地區別調整
+3.人工調整 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.未調整
+1.已調整
+2.待輸入
+3.已輸入
+9.待處理(檢核有誤)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjCodeEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AdjDate = ,AND TxKind = ,AND RateKeyInCode = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo,FacmNo,BormNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CdCode:TxKind
@@ -560,80 +633,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>OvduTerm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期期數</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>經辦</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTxtNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易序號</t>
-  </si>
-  <si>
-    <t>findL4320Erase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AdjDate &gt;= ,AND AdjDate &lt;= ,AND CustCode &gt;= ,AND CustCode &lt;= ,AND TxKind = ,AND ConfirmFlag = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTlrNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjDate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>合約指標利率</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>個別加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合約加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整前借戶利率檔加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整前借戶利率檔個別加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.批次自動調整
-2.按地區別調整
-3.人工調整 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.未調整
-1.已調整
-2.待輸入
-3.已輸入
-9.待處理(檢核有誤)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>利率輸入利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整記號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率輸入記號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1291,7 +1300,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1311,10 +1320,10 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1324,7 +1333,7 @@
       <c r="A2" s="43"/>
       <c r="B2" s="44"/>
       <c r="C2" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1339,7 +1348,7 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1420,13 +1429,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="23">
         <v>8</v>
@@ -1439,13 +1448,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="19">
         <v>7</v>
@@ -1458,13 +1467,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="19">
         <v>3</v>
@@ -1477,13 +1486,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="19">
         <v>3</v>
@@ -1496,20 +1505,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="21" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1517,13 +1526,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="19">
         <v>14</v>
@@ -1536,13 +1545,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="19">
         <v>2</v>
@@ -1555,13 +1564,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="19">
         <v>3</v>
@@ -1574,20 +1583,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="48.6">
@@ -1595,20 +1604,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="23">
         <v>1</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="81">
@@ -1616,20 +1625,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="19">
         <v>1</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8">
@@ -1637,20 +1646,20 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="19">
         <v>1</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1658,13 +1667,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="19">
         <v>14</v>
@@ -1680,10 +1689,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="19">
         <v>14</v>
@@ -1696,20 +1705,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="23">
         <v>8</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1717,13 +1726,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="23">
         <v>8</v>
@@ -1736,13 +1745,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="23">
         <v>8</v>
@@ -1755,20 +1764,20 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="23">
         <v>2</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1776,13 +1785,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="23">
         <v>8</v>
@@ -1795,20 +1804,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1816,13 +1825,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="19">
         <v>5</v>
@@ -1835,13 +1844,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="19">
         <v>6</v>
@@ -1850,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1858,13 +1867,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="19">
         <v>6</v>
@@ -1879,13 +1888,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="19">
         <v>6</v>
@@ -1900,13 +1909,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="19">
         <v>6</v>
@@ -1921,13 +1930,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" s="19">
         <v>6</v>
@@ -1942,13 +1951,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="19">
         <v>6</v>
@@ -1957,7 +1966,7 @@
         <v>4</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1965,13 +1974,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E36" s="19">
         <v>6</v>
@@ -1980,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1988,13 +1997,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" s="19">
         <v>6</v>
@@ -2003,7 +2012,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="81">
@@ -2011,20 +2020,20 @@
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E38" s="23">
         <v>2</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2032,20 +2041,20 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E39" s="27">
         <v>1</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2053,13 +2062,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="19">
         <v>6</v>
@@ -2068,7 +2077,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2076,20 +2085,20 @@
         <v>33</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E41" s="23">
         <v>8</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2097,13 +2106,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="23">
         <v>2</v>
@@ -2116,13 +2125,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E43" s="31">
         <v>300</v>
@@ -2135,13 +2144,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E44" s="19">
         <v>3</v>
@@ -2152,13 +2161,13 @@
         <v>15</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E45" s="19">
         <v>6</v>
@@ -2170,13 +2179,13 @@
         <v>16</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E46" s="19">
         <v>8</v>
@@ -2188,13 +2197,13 @@
         <v>36</v>
       </c>
       <c r="B47" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="E47" s="23"/>
       <c r="G47" s="25"/>
@@ -2204,13 +2213,13 @@
         <v>37</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="D48" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>51</v>
       </c>
       <c r="E48" s="23">
         <v>6</v>
@@ -2222,13 +2231,13 @@
         <v>38</v>
       </c>
       <c r="B49" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="D49" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>54</v>
       </c>
       <c r="E49" s="23"/>
       <c r="G49" s="25"/>
@@ -2238,13 +2247,13 @@
         <v>39</v>
       </c>
       <c r="B50" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>56</v>
-      </c>
       <c r="D50" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E50" s="23">
         <v>6</v>
@@ -2271,15 +2280,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -2297,50 +2306,53 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>151</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2382,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="40" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2402,13 +2414,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2420,13 +2432,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F6" s="16">
         <v>6</v>
